--- a/Foundations_grades_F18_anon.xlsx
+++ b/Foundations_grades_F18_anon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndporter\Google Drive\Jupyter\Fried\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68B7159-5D87-435E-9B17-7D267E741048}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3692566A-7061-4167-8C66-5AE6C5414DA5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="10845" xr2:uid="{E70DA6CC-E1EC-4217-8845-3AB3256984FB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{E70DA6CC-E1EC-4217-8845-3AB3256984FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
   <si>
     <t>for</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>bsbLonger</t>
+  </si>
+  <si>
+    <t>perfectReadExcel</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5554BBFA-DF9B-40FC-926C-9603581E69F4}">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +515,7 @@
     <col min="23" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -603,8 +606,11 @@
       <c r="AD1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -679,8 +685,12 @@
         <f>IF(AC2&gt;1,1,0)</f>
         <v>0</v>
       </c>
+      <c r="AE2">
+        <f>IF(N2=10,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -774,13 +784,17 @@
         <f t="shared" ref="AD3:AD46" si="1">IF(AC3&gt;1,1,0)</f>
         <v>1</v>
       </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE46" si="2">IF(N3=10,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B46" si="2">B3+1</f>
+        <f t="shared" ref="B4:B46" si="3">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4">
@@ -869,13 +883,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AE4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C5">
@@ -964,13 +982,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C6">
@@ -1059,13 +1081,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C7">
@@ -1154,13 +1180,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C8">
@@ -1229,13 +1259,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C9">
@@ -1324,13 +1358,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C10">
@@ -1419,13 +1457,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AE10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C11">
@@ -1514,13 +1556,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C12">
@@ -1609,13 +1655,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AE12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C13">
@@ -1704,13 +1754,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C14">
@@ -1799,13 +1853,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C15">
@@ -1894,13 +1952,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C16">
@@ -1989,13 +2051,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C17">
@@ -2084,13 +2150,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="C18">
@@ -2179,13 +2249,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AE18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="C19">
@@ -2274,13 +2348,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="C20">
@@ -2369,13 +2447,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="C21">
@@ -2464,13 +2546,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AE21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="C22" s="1">
@@ -2559,13 +2645,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AE22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C23" s="1">
@@ -2654,13 +2744,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AE23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C24" s="1">
@@ -2749,13 +2843,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C25" s="1">
@@ -2844,13 +2942,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C26" s="1">
@@ -2939,13 +3041,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C27" s="1">
@@ -3034,13 +3140,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C28" s="1">
@@ -3111,13 +3221,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C29" s="1">
@@ -3206,13 +3320,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C30" s="1">
@@ -3301,13 +3419,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="C31" s="1">
@@ -3396,13 +3518,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="C32" s="1">
@@ -3491,13 +3617,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="C33" s="1">
@@ -3586,13 +3716,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="C34" s="1">
@@ -3681,13 +3815,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="C35" s="1">
@@ -3776,13 +3914,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="C36" s="1">
@@ -3871,13 +4013,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="C37" s="1">
@@ -3966,13 +4112,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="C38" s="1">
@@ -4061,24 +4211,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AE38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
       <c r="B39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="C39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
       <c r="B40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="C40" s="1">
@@ -4136,7 +4290,7 @@
         <v>5</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" ref="U40:U46" si="3">SUM(C40:T40)</f>
+        <f t="shared" ref="U40:U46" si="4">SUM(C40:T40)</f>
         <v>100</v>
       </c>
       <c r="V40">
@@ -4167,13 +4321,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="B41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="C41" s="1">
@@ -4231,7 +4389,7 @@
         <v>5</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="V41">
@@ -4262,13 +4420,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AE41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
       <c r="B42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="C42" s="1">
@@ -4326,218 +4488,230 @@
         <v>5</v>
       </c>
       <c r="U42" s="2">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="V42">
+        <v>240</v>
+      </c>
+      <c r="W42" t="s">
+        <v>11</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>10</v>
+      </c>
+      <c r="Q43">
+        <v>10</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="V43">
+        <v>120</v>
+      </c>
+      <c r="W43" t="s">
+        <v>20</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>10</v>
+      </c>
+      <c r="Q44">
+        <v>10</v>
+      </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="V44">
+        <v>90</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="V42">
-        <v>240</v>
-      </c>
-      <c r="W42" t="s">
-        <v>11</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="C43" s="1">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43">
-        <v>5</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
-      </c>
-      <c r="J43">
-        <v>5</v>
-      </c>
-      <c r="K43">
-        <v>5</v>
-      </c>
-      <c r="L43">
-        <v>2</v>
-      </c>
-      <c r="M43">
-        <v>5</v>
-      </c>
-      <c r="N43">
-        <v>10</v>
-      </c>
-      <c r="O43">
-        <v>5</v>
-      </c>
-      <c r="P43">
-        <v>10</v>
-      </c>
-      <c r="Q43">
-        <v>10</v>
-      </c>
-      <c r="R43">
-        <v>5</v>
-      </c>
-      <c r="S43">
-        <v>5</v>
-      </c>
-      <c r="T43">
-        <v>5</v>
-      </c>
-      <c r="U43" s="2">
-        <f t="shared" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="V43">
-        <v>120</v>
-      </c>
-      <c r="W43" t="s">
-        <v>20</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43">
-        <v>1</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="C44" s="1">
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-      <c r="G44">
-        <v>5</v>
-      </c>
-      <c r="H44">
-        <v>5</v>
-      </c>
-      <c r="I44">
-        <v>4</v>
-      </c>
-      <c r="J44">
-        <v>4</v>
-      </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-      <c r="L44">
-        <v>5</v>
-      </c>
-      <c r="M44">
-        <v>5</v>
-      </c>
-      <c r="N44">
-        <v>10</v>
-      </c>
-      <c r="O44">
-        <v>5</v>
-      </c>
-      <c r="P44">
-        <v>10</v>
-      </c>
-      <c r="Q44">
-        <v>10</v>
-      </c>
-      <c r="R44">
-        <v>5</v>
-      </c>
-      <c r="S44">
-        <v>5</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="V44">
-        <v>90</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="AD44">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
       <c r="C45" s="1">
         <v>4</v>
       </c>
@@ -4593,7 +4767,7 @@
         <v>5</v>
       </c>
       <c r="U45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="V45">
@@ -4624,13 +4798,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AE45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
       <c r="B46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="C46" s="1">
@@ -4688,7 +4866,7 @@
         <v>5</v>
       </c>
       <c r="U46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="V46">
@@ -4717,6 +4895,10 @@
       </c>
       <c r="AD46">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
